--- a/TPO_阅读_生词_1-1生物学.xlsx
+++ b/TPO_阅读_生词_1-1生物学.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="25100" windowHeight="15600" tabRatio="701" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24820" windowHeight="15360" tabRatio="701" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -1685,12 +1685,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3207">
+  <cellStyleXfs count="3209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4943,7 +4945,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3207">
+  <cellStyles count="3209">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -6547,6 +6549,7 @@
     <cellStyle name="超链接" xfId="3201" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3203" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3207" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -8149,6 +8152,7 @@
     <cellStyle name="访问过的超链接" xfId="3202" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3204" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3208" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
   </cellStyles>
@@ -8717,7 +8721,7 @@
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -9715,7 +9719,7 @@
   <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -10043,7 +10047,7 @@
   <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>

--- a/TPO_阅读_生词_1-1生物学.xlsx
+++ b/TPO_阅读_生词_1-1生物学.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24820" windowHeight="15360" tabRatio="701" activeTab="1"/>
+    <workbookView xWindow="3760" yWindow="20" windowWidth="24780" windowHeight="15360" tabRatio="701" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TPO11-2'!$A$1:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TPO1-3'!$A$4:$D$49</definedName>
   </definedNames>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="380">
   <si>
     <t>1-3高山林木线，</t>
   </si>
@@ -70,10 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>herbs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>timberline</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,18 +87,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n.热带地区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>subtropics</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n.亚热带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>deciduous</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -142,54 +131,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a.有...倾向的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>universally</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ad.普遍的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cessation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>smother</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>v.使窒息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>avalanche</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.雪崩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>creep</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v./n.爬行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>seedlings</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n.树苗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>evident</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -198,10 +151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ultraviolet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>a./n.紫外线（的）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,10 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n.嫩芽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bud</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -246,18 +191,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n.冻土地带；苔原的地带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">alpine </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>shrubs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
@@ -265,22 +202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>occasional</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.偶然的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.苔藓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>lichen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -293,10 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a.俯卧的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">cushion </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -305,14 +222,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>snowdrifts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.被风刮在一起的雪堆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -325,10 +234,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n.严厉；苛刻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>low growth form</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -337,14 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>insulation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.隔绝；孤立</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>做题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -357,10 +254,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>√</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单词/记忆</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -502,10 +395,6 @@
   </si>
   <si>
     <t>a.完全的；彻底的  v.完成</t>
-  </si>
-  <si>
-    <t>a.完全的；彻底的  v.完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>archaeocyte</t>
@@ -1194,14 +1083,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a.阴天的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v./n.推测；猜测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>a.荒谬的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1478,10 +1359,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>强加于</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>v.强加</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1531,6 +1408,94 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>强加于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a./ad.全部的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发动；起飞；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.[鸟]知更鸟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>herb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>semi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.干旱的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a./n.常绿植物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.落叶性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.树带界限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultraviolet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.极端的；  n.极端分子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>violet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.紫罗兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.灌木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.嫩芽；蓓蕾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.阴天的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v./n.推测；猜测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>v.踱步   n.一步步前行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1539,15 +1504,253 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a./ad.全部的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.发动；起飞；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.[鸟]知更鸟</t>
+    <t>n.树苗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isolate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使隔离；孤立  a.孤立的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.香草；草药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.热带地区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.亚热带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad.普遍的？？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avalanche</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.雪崩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drift
+snowdrifts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.拜倒；  a.拜倒的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使漂流；使堆积
+n.积雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.完整的；彻底的  v.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smother</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.有...倾向的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.阔叶树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.苔藓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.高地；海拔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevalent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.流行的；普遍的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It ranges from sea level 【in the Polar Regions】 to 4,500 meters in the dry subtropics and 3,500-4,500 meters in the moist tropics.
+ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极地地区的海平面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>干燥的亚热带地区的海拔4 500米处以及潮湿的热带地区海拔3 500米至4 500米处都有上行树带界线。
+两个区间？
+【极地海平面----subtropics的4500米】
+【热带地区：3500---4500米】</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timberline trees are normally evergreens, suggesting that these have some advantage over deciduous trees 【in the extreme environments 【of the upper timberline】】.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Immediately adjacent to the timberline, the tundra consists of a fairly complete cover 【of low-lying shrubs, herbs, and grasses】, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【while higher up】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> the number and diversity of species decrease until there is much bare ground with 【occasional mosses and lichens and some prostrate cushion plants】. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.低洼的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">low-lying </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late-lying????</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A have advantage over B
+A--Timberline trees --------------evergreens
+B-- upper timberline tress--------deciduous trees
+A 不是包含B?这也能相互比较、？
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A have advantage over B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A比B有优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>由于紧挨着树带界线，苔原上都是矮灌木、草本植物和牧草。随着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海拔的增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，物种的数量和多样性会逐渐减少，直到出现大量空地伴着零星的苔藓和地衣这样的伏地垫状植物。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevation/altitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.严酷；严密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v.隔绝；孤立
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.冻土地带；苔原的地带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1558,7 +1761,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode=";;;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1643,8 +1846,22 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1675,6 +1892,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1685,7 +1908,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3209">
+  <cellStyleXfs count="5129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -4897,18 +5120,1936 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4944,8 +7085,57 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3209">
+  <cellStyles count="5129">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -6550,6 +8740,966 @@
     <cellStyle name="超链接" xfId="3203" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3205" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3671" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3673" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3731" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3733" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3735" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3737" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3739" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3741" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3743" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3745" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3747" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3749" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3751" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3753" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3755" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3757" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3759" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3761" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3763" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3765" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3767" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3769" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3771" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3773" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3775" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3777" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3779" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3781" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3783" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3785" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3787" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3789" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3791" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3793" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3795" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3797" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3799" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3801" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3803" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3805" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3807" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3809" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3811" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3813" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3815" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3817" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3819" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3821" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3823" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3825" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3827" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3829" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3831" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3833" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3835" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3837" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3889" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3891" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3893" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3895" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3897" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3899" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3901" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3903" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3905" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3907" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3909" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3911" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3913" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3915" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3917" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3919" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3921" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3923" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3925" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3927" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3929" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3931" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3933" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3935" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3937" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3939" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3941" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3943" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3945" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3947" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3949" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3951" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3953" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3955" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3957" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3959" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3961" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3963" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3965" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3967" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3969" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3971" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3973" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3975" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3977" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3979" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3981" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3983" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3985" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3987" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3989" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3991" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3993" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3995" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3997" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3999" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4001" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4003" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4005" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4007" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4009" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4011" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4013" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4015" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4017" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4019" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4021" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4023" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4025" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4027" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4029" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4031" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4033" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4035" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4037" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4039" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4041" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4043" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4045" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4047" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4049" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4051" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4053" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4055" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4057" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4059" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4061" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4063" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4065" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4067" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4069" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4071" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4073" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4075" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4077" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4079" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4081" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4083" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4085" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4087" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4089" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4091" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4093" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4095" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4097" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4099" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4671" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4673" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4731" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4733" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4735" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4737" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4739" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4741" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4743" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4745" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4747" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4749" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4751" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4753" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4755" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4757" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4759" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4761" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4763" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4765" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4767" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4769" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4771" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4773" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4775" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4777" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4779" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4781" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4783" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4785" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4787" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4789" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4791" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4793" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4795" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4797" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4799" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4801" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4803" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4805" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4807" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4809" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4811" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4813" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4815" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4817" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4819" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4821" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4823" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4825" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4827" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4829" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4831" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4833" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4835" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4837" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4889" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4891" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4893" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4895" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4897" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4899" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4901" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4903" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4905" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4907" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4909" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4911" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4913" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4915" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4917" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4919" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4921" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4923" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4925" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4927" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4929" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4931" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4933" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4935" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4937" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4939" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4941" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4943" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4945" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4947" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4949" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4951" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4953" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4955" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4957" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4959" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4961" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4963" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4965" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4967" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4969" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4971" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4973" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4975" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4977" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4979" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4981" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4983" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4985" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4987" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4989" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4991" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4993" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4995" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4997" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4999" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5001" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5003" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5005" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5007" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5009" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5011" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5013" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5015" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5017" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5019" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5021" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5023" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5025" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5027" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5029" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5031" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5033" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5035" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5037" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5039" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5041" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5043" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5045" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5047" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5049" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5051" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5053" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5055" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5057" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5059" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5061" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5063" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5065" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5067" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5069" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5071" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5073" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5075" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5077" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5079" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5081" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5083" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5085" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5087" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5089" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5091" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5093" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5095" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5097" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5099" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5127" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -8153,10 +11303,979 @@
     <cellStyle name="访问过的超链接" xfId="3204" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3206" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3602" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3604" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3606" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3608" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3610" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3612" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3646" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3648" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3650" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3652" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3654" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3656" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3658" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3660" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3662" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3664" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3666" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3668" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3670" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3672" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3674" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3676" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3678" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3680" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3682" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3684" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3686" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3688" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3690" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3692" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3694" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3696" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3698" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3700" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3702" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3704" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3706" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3708" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3710" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3712" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3714" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3716" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3718" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3720" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3722" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3724" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3726" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3728" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3730" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3732" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3734" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3736" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3738" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3740" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3742" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3744" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3746" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3748" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3750" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3752" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3754" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3756" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3758" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3760" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3762" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3764" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3766" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3768" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3770" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3772" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3774" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3776" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3778" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3780" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3782" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3784" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3786" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3788" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3790" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3792" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3794" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3796" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3798" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3800" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3802" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3804" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3806" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3808" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3810" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3812" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3814" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3816" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3818" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3820" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3822" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3824" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3826" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3828" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3830" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3832" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3834" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3836" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3838" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3840" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3842" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3844" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3846" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3848" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3850" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3852" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3854" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3856" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3858" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3860" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3862" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3864" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3866" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3868" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3870" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3872" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3874" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3876" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3878" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3880" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3882" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3884" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3886" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3888" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3890" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3892" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3894" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3896" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3898" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3900" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3902" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3904" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3906" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3908" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3910" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3912" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3914" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3916" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3918" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3920" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3922" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3924" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3926" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3928" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3930" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3932" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3934" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3936" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3938" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3940" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3942" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3944" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3946" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3948" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3950" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3952" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3954" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3956" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3958" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3960" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3962" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3964" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3966" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3968" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3970" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3972" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3974" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3976" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3978" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3980" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3982" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3984" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3986" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3988" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3990" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3992" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3994" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3996" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3998" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4000" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4002" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4004" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4006" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4008" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4010" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4012" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4014" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4016" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4018" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4020" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4022" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4024" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4026" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4028" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4030" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4032" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4034" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4036" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4038" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4040" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4042" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4044" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4046" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4048" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4050" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4052" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4054" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4056" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4058" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4060" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4062" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4064" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4066" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4068" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4070" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4072" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4074" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4076" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4078" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4080" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4082" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4084" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4086" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4088" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4090" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4092" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4094" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4096" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4098" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4602" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4604" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4606" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4608" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4610" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4612" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4646" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4648" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4650" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4652" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4654" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4656" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4658" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4660" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4662" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4664" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4666" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4668" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4670" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4672" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4674" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4676" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4678" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4680" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4682" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4684" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4686" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4688" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4690" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4692" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4694" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4696" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4698" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4700" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4702" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4704" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4706" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4708" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4710" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4712" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4714" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4716" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4718" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4720" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4722" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4724" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4726" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4728" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4730" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4732" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4734" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4736" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4738" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4740" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4742" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4744" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4746" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4748" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4750" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4752" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4754" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4756" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4758" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4760" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4762" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4764" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4766" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4768" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4770" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4772" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4774" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4776" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4778" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4780" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4782" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4784" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4786" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4788" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4790" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4792" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4794" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4796" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4798" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4800" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4802" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4804" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4806" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4808" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4810" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4812" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4814" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4816" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4818" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4820" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4822" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4824" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4826" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4828" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4830" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4832" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4834" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4836" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4838" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4840" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4842" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4844" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4846" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4848" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4850" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4852" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4854" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4856" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4858" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4860" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4862" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4864" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4866" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4868" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4870" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4872" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4874" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4876" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4878" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4880" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4882" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4884" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4886" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4888" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4890" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4892" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4894" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4896" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4898" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4900" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4902" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4904" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4906" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4908" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4910" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4912" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4914" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4916" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4918" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4920" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4922" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4924" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4926" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4928" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4930" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4932" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4934" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4936" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4938" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4940" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4942" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4944" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4946" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4948" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4950" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4952" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4954" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4956" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4958" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4960" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4962" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4964" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4966" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4968" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4970" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4972" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4974" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4976" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4978" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4980" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4982" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4984" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4986" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4988" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4990" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4992" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4994" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4996" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4998" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5000" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5002" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5004" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5006" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5008" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5010" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5012" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5014" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5016" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5018" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5020" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5022" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5024" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5026" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5028" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5030" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5032" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5034" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5036" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5038" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5040" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5042" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5044" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5046" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5048" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5050" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5052" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5054" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5056" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5058" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5060" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5062" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5064" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5066" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5068" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5070" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5072" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5074" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5076" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5078" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5080" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5082" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5084" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5086" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5088" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5090" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5092" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5094" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5096" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5098" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5128" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -8487,7 +12606,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -8503,24 +12622,27 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>378</v>
+      </c>
+      <c r="E2" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8528,10 +12650,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8539,10 +12661,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>237</v>
+        <v>58</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8550,7 +12672,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8558,18 +12680,18 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8719,307 +12841,655 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:C38"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="6" style="29" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:7" ht="102">
+      <c r="E1" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="85">
+      <c r="F2" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="102">
+      <c r="E3" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="31">
+        <v>9</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="31">
+        <v>21</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="31">
+        <v>17</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="31">
+        <v>37</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" ht="34">
+      <c r="A9" s="31">
+        <v>39</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="31">
+        <v>40</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="31">
+        <v>42</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="29">
+        <v>46</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="31">
+        <v>15</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="31">
+        <v>31</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="31">
+        <v>32</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="31">
+        <v>18</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="7" t="s">
+      <c r="D17" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="31">
+        <v>5</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="7" t="s">
+      <c r="D19" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="31">
+        <v>6</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="31">
+        <v>7</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="31">
+        <v>8</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="7" t="s">
+      <c r="D22" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="31">
+        <v>12</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="31">
+        <v>13</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="31">
+        <v>14</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="31">
+        <v>29</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="31">
+        <v>30</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="31">
+        <v>35</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="31">
+        <v>36</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="31">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="7" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="31">
+        <v>19</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="31">
+        <v>20</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="31">
+        <v>22</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="7" t="s">
+      <c r="D36" s="33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="31">
+        <v>23</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="31">
+        <v>33</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="31">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="31">
+        <v>41</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="31">
+        <v>4</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="31">
+        <v>10</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="31">
+        <v>11</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="7" t="s">
+      <c r="D43" s="33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="31">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="5" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="31">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="4" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="5" t="s">
+      <c r="D45" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="31">
+        <v>34</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="31">
+        <v>43</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D47" s="33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="31">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="8" t="s">
+      <c r="B48" s="31"/>
+      <c r="C48" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="31">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
+      <c r="B49" s="31"/>
+      <c r="C49" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:D49">
+    <sortState ref="A5:D49">
+      <sortCondition sortBy="cellColor" ref="C4:C49" dxfId="0"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9034,258 +13504,264 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:C30"/>
+  <dimension ref="B1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="1" spans="2:4">
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="C10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="51">
+      <c r="C22" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="26" spans="2:4">
+      <c r="C26" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="2" t="s">
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
         <v>115</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="29" spans="2:4">
+      <c r="C29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="D29" t="s">
         <v>117</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="30" spans="2:4">
+      <c r="C30" t="s">
         <v>118</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D30" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="51">
-      <c r="B22" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -9305,8 +13781,8 @@
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -9318,388 +13794,388 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="9" t="s">
-        <v>195</v>
+      <c r="B30" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="9" t="s">
-        <v>196</v>
+      <c r="B31" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="9" t="s">
-        <v>197</v>
+      <c r="B32" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" s="9" t="s">
-        <v>198</v>
+      <c r="B33" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="B34" s="9" t="s">
-        <v>199</v>
+      <c r="B34" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="B35" s="9" t="s">
-        <v>200</v>
+      <c r="B35" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="B36" s="9" t="s">
-        <v>201</v>
+      <c r="B36" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="B39" s="9" t="s">
-        <v>205</v>
+      <c r="B39" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="B40" s="9" t="s">
-        <v>206</v>
+      <c r="B40" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="B41" s="13" t="s">
-        <v>207</v>
+      <c r="B41" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="B52" s="14" t="s">
-        <v>220</v>
+      <c r="B52" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="B55" s="14" t="s">
-        <v>223</v>
+      <c r="B55" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="B57" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="B58" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="B60" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="B61" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="B63" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -9742,7 +14218,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -9760,269 +14236,269 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>265</v>
+      <c r="C2" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>273</v>
+      <c r="C3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>350</v>
+      <c r="C4" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="17" t="s">
-        <v>241</v>
+      <c r="A5" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>274</v>
+      <c r="C5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>275</v>
+      <c r="C6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>276</v>
+      <c r="C7" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>349</v>
+      <c r="C8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>270</v>
+      <c r="C9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>277</v>
+      <c r="C10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>245</v>
+      <c r="C11" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>278</v>
+      <c r="C12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>279</v>
+      <c r="C13" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>280</v>
+      <c r="C14" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="18"/>
+      <c r="C15" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4">
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>253</v>
+      <c r="C16" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>255</v>
+      <c r="C17" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4">
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>271</v>
+      <c r="C19" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>257</v>
+      <c r="C20" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>260</v>
+      <c r="C21" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>269</v>
+      <c r="C22" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>272</v>
+      <c r="C23" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>281</v>
+      <c r="C24" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -10048,7 +14524,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -10061,301 +14537,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="68">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="D2" s="23"/>
+      <c r="E2" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51">
+      <c r="D3" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51">
+      <c r="B4" s="10"/>
+      <c r="C4" s="22"/>
+      <c r="D4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="D2" s="25"/>
-      <c r="E2" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51">
-      <c r="D3" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51">
-      <c r="B4" s="12"/>
-      <c r="C4" s="24"/>
-      <c r="D4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="34">
-      <c r="B5" s="12"/>
-      <c r="C5" s="24"/>
-      <c r="E5" s="11" t="s">
-        <v>331</v>
+      <c r="B5" s="10"/>
+      <c r="C5" s="22"/>
+      <c r="E5" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="26" t="s">
-        <v>238</v>
+      <c r="A6" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>339</v>
+        <v>253</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="24"/>
+      <c r="B11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="24"/>
+      <c r="B13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="24"/>
+      <c r="B14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="24"/>
+      <c r="B15" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="24"/>
+      <c r="B16" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="26"/>
-      <c r="B8" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C28" s="27" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="26"/>
-      <c r="B11" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="29" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="26"/>
-      <c r="B13" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="26"/>
-      <c r="B14" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="26"/>
-      <c r="B15" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="26"/>
-      <c r="B16" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="16" t="s">
+      <c r="C33" s="27" t="s">
         <v>303</v>
-      </c>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
